--- a/api/description.xlsx
+++ b/api/description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exhibition\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F7D22-7ADD-47D6-90A6-E713FDEC53CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2369ECD-6834-46B8-8696-4F26D5E4716C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t>登入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,46 @@
   </si>
   <si>
     <t>單一作品資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改展覽資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改作品資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除展覽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦方展覽資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦方帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>YTcode</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,145 +919,157 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C764B6-D1B4-4116-A0FA-785183DE2EDC}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1401,12 +1453,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="F2" s="27">
         <v>100</v>
       </c>
@@ -1415,10 +1467,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64">
+      <c r="A3" s="78">
         <v>100</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -1435,8 +1487,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
@@ -1451,8 +1503,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1467,13 +1519,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="53">
+      <c r="A6" s="50">
         <v>110</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="5"/>
       <c r="F6" s="12">
         <v>99</v>
@@ -1483,13 +1535,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57">
+      <c r="A7" s="54">
         <v>120</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="6"/>
       <c r="F7" s="12">
         <v>97</v>
@@ -1499,13 +1551,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58">
+      <c r="A8" s="72">
         <v>130</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1519,9 +1571,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="56" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1535,9 +1587,9 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="56" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1551,9 +1603,9 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="60"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="56" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1561,13 +1613,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64">
+      <c r="A12" s="78">
         <v>200</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1575,9 +1627,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="55" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1585,13 +1637,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="73">
+      <c r="A14" s="70">
         <v>201</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1599,9 +1651,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="73"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="56" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1611,17 +1663,17 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="49">
+      <c r="A17" s="46">
         <v>300</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1665,105 +1717,105 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73">
-        <v>310</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>101</v>
+      <c r="A20" s="62">
+        <v>303</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="73"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>23</v>
+      <c r="A21" s="64">
+        <v>310</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23">
-        <v>311</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
+      <c r="A22" s="65"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="61" t="s">
+        <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73">
-        <v>312</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>107</v>
+      <c r="A23" s="62">
+        <v>311</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="64">
+        <v>312</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="25" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="65"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="71">
+    <row r="26" spans="1:7">
+      <c r="A26" s="70">
         <v>313</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B26" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="72"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8">
-        <v>320</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="54" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -1771,107 +1823,109 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="63">
+        <v>320</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="70">
+        <v>330</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="63">
+        <v>340</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="66">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="80">
         <v>400</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B33" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D33" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="25" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="80"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D34" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="21">
+    <row r="35" spans="1:4">
+      <c r="A35" s="21">
         <v>401</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35">
+    <row r="36" spans="1:4">
+      <c r="A36" s="35">
         <v>402</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B36" s="36" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="48">
-        <v>500</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="35">
-        <v>501</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="73">
-        <v>502</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>118</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>5</v>
@@ -1881,260 +1935,374 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="73"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="45">
+        <v>500</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="35">
+        <v>501</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="64">
+        <v>502</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="65"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D41" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="81">
+    <row r="42" spans="1:4">
+      <c r="A42" s="86">
         <v>510</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B42" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C42" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="82"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="39" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="87"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="83"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="39" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="87"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="37">
+    <row r="45" spans="1:4">
+      <c r="A45" s="56">
         <v>511</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B45" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C45" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D45" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="74">
+    <row r="46" spans="1:4">
+      <c r="A46" s="72">
         <v>512</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B46" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C46" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="39" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="73"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="39" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="73"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="71">
+    <row r="49" spans="1:4">
+      <c r="A49" s="64">
         <v>513</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B49" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C49" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="80"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="54" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="65"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D50" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="72"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="54" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="66"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="71">
+    <row r="52" spans="1:4">
+      <c r="A52" s="84">
         <v>520</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B52" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C52" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D52" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="72"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="54" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="85"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D53" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="68" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="64">
+        <v>530</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="65"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="66"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="70">
+        <v>540</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="70"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="64">
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="83"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="78">
         <v>600</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B60" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="24" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="78"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="24" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="78"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="50">
+    <row r="63" spans="1:4">
+      <c r="A63" s="47">
         <v>601</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B63" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C63" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="23">
+    <row r="64" spans="1:4">
+      <c r="A64" s="23">
         <v>602</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B64" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
+  <mergeCells count="39">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1F686-1149-41FD-8AB6-6C2136E85E43}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2159,28 +2327,28 @@
     <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="46" customFormat="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" s="43" customFormat="1">
+      <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2190,7 +2358,7 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="90"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
@@ -2201,7 +2369,7 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="90"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="17" t="s">
         <v>26</v>
       </c>
@@ -2212,7 +2380,7 @@
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="90"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
@@ -2223,7 +2391,7 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="90"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2236,7 +2404,7 @@
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="90"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
@@ -2249,10 +2417,10 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -2262,7 +2430,7 @@
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="91"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
@@ -2273,7 +2441,7 @@
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="91"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
@@ -2284,7 +2452,7 @@
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="91"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
@@ -2295,7 +2463,7 @@
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="91"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="18" t="s">
         <v>29</v>
       </c>
@@ -2306,49 +2474,53 @@
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="95"/>
+      <c r="B14" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="19" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="92"/>
-      <c r="B14" s="19" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="96"/>
+      <c r="B16" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="92"/>
-      <c r="B15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="92"/>
-      <c r="B16" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>46</v>
@@ -2357,60 +2529,56 @@
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="92"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="92"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="92"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="96"/>
+      <c r="B20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="96"/>
+      <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="92"/>
-      <c r="B20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="92"/>
-      <c r="B21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="19" t="s">
@@ -2418,270 +2586,296 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="96"/>
+      <c r="B23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="91"/>
-      <c r="B23" s="40" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="95"/>
+      <c r="B25" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="91"/>
-      <c r="B24" s="18" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="95"/>
+      <c r="B26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="18" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="85" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="86"/>
-      <c r="B26" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="86"/>
-      <c r="B27" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="86"/>
-      <c r="B28" s="19" t="s">
-        <v>80</v>
+      <c r="A28" s="90"/>
+      <c r="B28" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="31"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="86"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="19" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="86"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="90"/>
+      <c r="B31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="90"/>
+      <c r="B32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="19" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="93"/>
-      <c r="B31" s="19" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="97"/>
+      <c r="B33" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="19" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="87" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B34" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="88"/>
-      <c r="B33" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="88"/>
-      <c r="B34" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="89"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="92"/>
+      <c r="B35" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="92"/>
+      <c r="B36" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="93"/>
+      <c r="B37" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="18" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="85" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B38" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="86"/>
-      <c r="B37" s="41" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="90"/>
+      <c r="B39" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="86"/>
-      <c r="B38" s="19" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="90"/>
+      <c r="B40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="19" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="87" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B41" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="88"/>
-      <c r="B40" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="88"/>
-      <c r="B41" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="89"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="92"/>
+      <c r="B42" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="92"/>
+      <c r="B43" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="93"/>
+      <c r="B44" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="18" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="18" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A34:A37"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/description.xlsx
+++ b/api/description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exhibition\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2369ECD-6834-46B8-8696-4F26D5E4716C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CD065-7C0B-4BCB-B5E7-2776909229FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
+    <workbookView xWindow="-18630" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -540,13 +540,15 @@
     <t>varchar(500)</t>
   </si>
   <si>
-    <t>YTcode</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
     <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,6 +1002,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1009,17 +1023,35 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1033,47 +1065,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1418,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C764B6-D1B4-4116-A0FA-785183DE2EDC}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1453,12 +1455,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="F2" s="27">
         <v>100</v>
       </c>
@@ -1551,10 +1553,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72">
+      <c r="A8" s="82">
         <v>130</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="76" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="53" t="s">
@@ -1571,8 +1573,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="53" t="s">
         <v>13</v>
       </c>
@@ -1587,8 +1589,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
@@ -1603,8 +1605,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="74"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
@@ -1637,10 +1639,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="70">
+      <c r="A14" s="64">
         <v>201</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="80" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -1651,8 +1653,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="70"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
@@ -1663,12 +1665,12 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -1733,10 +1735,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="64">
+      <c r="A21" s="68">
         <v>310</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="65" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="61" t="s">
@@ -1749,8 +1751,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="65"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="61" t="s">
         <v>5</v>
       </c>
@@ -1775,10 +1777,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="64">
+      <c r="A24" s="68">
         <v>312</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="65" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="61" t="s">
@@ -1789,8 +1791,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="65"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="61" t="s">
         <v>5</v>
       </c>
@@ -1799,10 +1801,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="70">
+      <c r="A26" s="64">
         <v>313</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="81" t="s">
         <v>112</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -1813,8 +1815,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="25" t="s">
         <v>5</v>
       </c>
@@ -1837,10 +1839,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="70">
+      <c r="A29" s="64">
         <v>330</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="81" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -1851,8 +1853,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="25" t="s">
         <v>17</v>
       </c>
@@ -1875,18 +1877,18 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="80">
+      <c r="A33" s="86">
         <v>400</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1897,8 +1899,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="80"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -1935,12 +1937,12 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="45">
@@ -1971,10 +1973,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="64">
+      <c r="A40" s="68">
         <v>502</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="65" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="55" t="s">
@@ -1985,8 +1987,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="65"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="55" t="s">
         <v>78</v>
       </c>
@@ -1995,10 +1997,10 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="86">
+      <c r="A42" s="74">
         <v>510</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="76" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="58" t="s">
@@ -2009,8 +2011,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="87"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="58" t="s">
         <v>5</v>
       </c>
@@ -2019,8 +2021,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="87"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="58" t="s">
         <v>78</v>
       </c>
@@ -2043,10 +2045,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="72">
+      <c r="A46" s="82">
         <v>512</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="76" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="58" t="s">
@@ -2057,8 +2059,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="58" t="s">
         <v>5</v>
       </c>
@@ -2067,8 +2069,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="73"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="58" t="s">
         <v>78</v>
       </c>
@@ -2077,10 +2079,10 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="64">
+      <c r="A49" s="68">
         <v>513</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="65" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="55" t="s">
@@ -2091,8 +2093,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="65"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="55" t="s">
         <v>5</v>
       </c>
@@ -2101,8 +2103,8 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="66"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="55" t="s">
         <v>78</v>
       </c>
@@ -2111,10 +2113,10 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="84">
+      <c r="A52" s="87">
         <v>520</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="51" t="s">
@@ -2125,8 +2127,8 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="85"/>
-      <c r="B53" s="77"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="51" t="s">
         <v>78</v>
       </c>
@@ -2135,10 +2137,10 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="64">
+      <c r="A54" s="68">
         <v>530</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="65" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="55" t="s">
@@ -2149,8 +2151,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="65"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="55" t="s">
         <v>78</v>
       </c>
@@ -2159,8 +2161,8 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="66"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="55" t="s">
         <v>17</v>
       </c>
@@ -2169,10 +2171,10 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="70">
+      <c r="A57" s="64">
         <v>540</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="81" t="s">
         <v>121</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -2183,8 +2185,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="70"/>
-      <c r="B58" s="71"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="25" t="s">
         <v>78</v>
       </c>
@@ -2193,12 +2195,12 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="78">
@@ -2264,6 +2266,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A49:A51"/>
@@ -2280,29 +2305,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1F686-1149-41FD-8AB6-6C2136E85E43}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2476,27 +2478,27 @@
     <row r="13" spans="1:7">
       <c r="A13" s="95"/>
       <c r="B13" s="30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="95"/>
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7">

--- a/api/description.xlsx
+++ b/api/description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exhibition\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CD065-7C0B-4BCB-B5E7-2776909229FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B6E05-8455-45D3-B8FD-BA09296711B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18630" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
   <si>
     <t>登入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +545,10 @@
   </si>
   <si>
     <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Upload Failed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,16 +1002,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,62 +1029,53 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C764B6-D1B4-4116-A0FA-785183DE2EDC}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1455,12 +1455,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
       <c r="F2" s="27">
         <v>100</v>
       </c>
@@ -1469,10 +1469,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78">
+      <c r="A3" s="77">
         <v>100</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -1489,8 +1489,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
@@ -1505,8 +1505,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="5"/>
@@ -1541,7 +1541,7 @@
         <v>120</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="6"/>
@@ -1553,11 +1553,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="82">
+      <c r="A8" s="73">
         <v>130</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>116</v>
+      <c r="B8" s="69" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>16</v>
@@ -1569,12 +1569,12 @@
         <v>89</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="83"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="53" t="s">
         <v>13</v>
       </c>
@@ -1585,12 +1585,12 @@
         <v>96</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="83"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
@@ -1601,24 +1601,30 @@
         <v>95</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="F11" s="33">
+        <v>94</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>200</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="52" t="s">
@@ -1629,8 +1635,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
@@ -1639,11 +1645,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="64">
+      <c r="A14" s="67">
         <v>201</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>94</v>
+      <c r="B14" s="88" t="s">
+        <v>93</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>16</v>
@@ -1653,8 +1659,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="64"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
@@ -1665,12 +1671,12 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -1685,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1723,23 +1729,23 @@
         <v>303</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="68">
+      <c r="A21" s="71">
         <v>310</v>
       </c>
-      <c r="B21" s="65" t="s">
-        <v>101</v>
+      <c r="B21" s="64" t="s">
+        <v>100</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>13</v>
@@ -1751,8 +1757,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="69"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="61" t="s">
         <v>5</v>
       </c>
@@ -1767,21 +1773,21 @@
         <v>311</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="68">
+      <c r="A24" s="71">
         <v>312</v>
       </c>
-      <c r="B24" s="65" t="s">
-        <v>107</v>
+      <c r="B24" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="C24" s="61" t="s">
         <v>13</v>
@@ -1791,8 +1797,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="69"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="61" t="s">
         <v>5</v>
       </c>
@@ -1801,11 +1807,11 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="64">
+      <c r="A26" s="67">
         <v>313</v>
       </c>
-      <c r="B26" s="81" t="s">
-        <v>112</v>
+      <c r="B26" s="68" t="s">
+        <v>111</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>13</v>
@@ -1815,8 +1821,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="64"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="25" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>320</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="61" t="s">
         <v>5</v>
@@ -1839,11 +1845,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="64">
+      <c r="A29" s="67">
         <v>330</v>
       </c>
-      <c r="B29" s="81" t="s">
-        <v>119</v>
+      <c r="B29" s="68" t="s">
+        <v>118</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>5</v>
@@ -1853,13 +1859,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="64"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1867,7 +1873,7 @@
         <v>340</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>5</v>
@@ -1877,18 +1883,18 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="86">
+      <c r="A33" s="79">
         <v>400</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="68" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1899,8 +1905,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="86"/>
-      <c r="B34" s="81"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>401</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>13</v>
@@ -1927,7 +1933,7 @@
         <v>402</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>5</v>
@@ -1937,25 +1943,25 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="45">
         <v>500</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1963,7 +1969,7 @@
         <v>501</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>5</v>
@@ -1973,11 +1979,11 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="68">
+      <c r="A40" s="71">
         <v>502</v>
       </c>
-      <c r="B40" s="65" t="s">
-        <v>118</v>
+      <c r="B40" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="C40" s="55" t="s">
         <v>5</v>
@@ -1987,21 +1993,21 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="69"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="74">
+      <c r="A42" s="86">
         <v>510</v>
       </c>
-      <c r="B42" s="76" t="s">
-        <v>104</v>
+      <c r="B42" s="69" t="s">
+        <v>103</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>13</v>
@@ -2011,8 +2017,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="75"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="58" t="s">
         <v>5</v>
       </c>
@@ -2021,13 +2027,13 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="75"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2035,21 +2041,21 @@
         <v>511</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="82">
+      <c r="A46" s="73">
         <v>512</v>
       </c>
-      <c r="B46" s="76" t="s">
-        <v>106</v>
+      <c r="B46" s="69" t="s">
+        <v>105</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>13</v>
@@ -2059,8 +2065,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="83"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="58" t="s">
         <v>5</v>
       </c>
@@ -2069,21 +2075,21 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="83"/>
-      <c r="B48" s="77"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="68">
+      <c r="A49" s="71">
         <v>513</v>
       </c>
-      <c r="B49" s="65" t="s">
-        <v>114</v>
+      <c r="B49" s="64" t="s">
+        <v>113</v>
       </c>
       <c r="C49" s="55" t="s">
         <v>13</v>
@@ -2093,8 +2099,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="69"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="55" t="s">
         <v>5</v>
       </c>
@@ -2103,21 +2109,21 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="70"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="87">
+      <c r="A52" s="83">
         <v>520</v>
       </c>
-      <c r="B52" s="76" t="s">
-        <v>115</v>
+      <c r="B52" s="69" t="s">
+        <v>114</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>5</v>
@@ -2127,21 +2133,21 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="88"/>
-      <c r="B53" s="85"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="51" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="68">
+      <c r="A54" s="71">
         <v>530</v>
       </c>
-      <c r="B54" s="65" t="s">
-        <v>120</v>
+      <c r="B54" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="C54" s="55" t="s">
         <v>5</v>
@@ -2151,31 +2157,31 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="69"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="70"/>
-      <c r="B56" s="67"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="64">
+      <c r="A57" s="67">
         <v>540</v>
       </c>
-      <c r="B57" s="81" t="s">
-        <v>121</v>
+      <c r="B57" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>5</v>
@@ -2185,29 +2191,29 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="64"/>
-      <c r="B58" s="81"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D58" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="82"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="77">
+        <v>600</v>
+      </c>
+      <c r="B60" s="78" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="78">
-        <v>600</v>
-      </c>
-      <c r="B60" s="79" t="s">
-        <v>89</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>13</v>
@@ -2217,8 +2223,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="78"/>
-      <c r="B61" s="79"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="24" t="s">
         <v>5</v>
       </c>
@@ -2227,13 +2233,13 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="78"/>
-      <c r="B62" s="79"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="24" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2241,7 +2247,7 @@
         <v>601</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>13</v>
@@ -2255,7 +2261,7 @@
         <v>602</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -2266,14 +2272,19 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A60:A62"/>
@@ -2290,21 +2301,16 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,7 +2323,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B32" sqref="B32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2478,27 +2484,27 @@
     <row r="13" spans="1:7">
       <c r="A13" s="95"/>
       <c r="B13" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="95"/>
       <c r="B14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2673,7 +2679,7 @@
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2682,7 +2688,7 @@
         <v>79</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="19"/>
@@ -2693,7 +2699,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="19"/>
@@ -2715,7 +2721,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="19" t="s">
@@ -2737,7 +2743,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>24</v>
@@ -2773,19 +2779,19 @@
     <row r="37" spans="1:5">
       <c r="A37" s="93"/>
       <c r="B37" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>24</v>
@@ -2810,19 +2816,19 @@
     <row r="40" spans="1:5">
       <c r="A40" s="90"/>
       <c r="B40" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>24</v>
@@ -2858,7 +2864,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="93"/>
       <c r="B44" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>63</v>

--- a/api/description.xlsx
+++ b/api/description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exhibition\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B6E05-8455-45D3-B8FD-BA09296711B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6E866-A43C-4A62-8E9F-5C13072E5BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FCE7D1F5-4CCA-4526-8387-0E0D05349D74}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="133">
   <si>
     <t>登入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,17 @@
   </si>
   <si>
     <t>File Upload Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否投票過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展覽編號</t>
+  </si>
+  <si>
+    <t>是否參加過</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,81 +1013,93 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1102,6 +1125,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1418,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C764B6-D1B4-4116-A0FA-785183DE2EDC}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D67" sqref="C66:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1455,12 +1490,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="F2" s="27">
         <v>100</v>
       </c>
@@ -1469,10 +1504,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="77">
+      <c r="A3" s="75">
         <v>100</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -1489,8 +1524,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
@@ -1505,8 +1540,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1553,10 +1588,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73">
+      <c r="A8" s="80">
         <v>130</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="73" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="53" t="s">
@@ -1573,8 +1608,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="74"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="53" t="s">
         <v>13</v>
       </c>
@@ -1589,8 +1624,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="74"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
@@ -1605,8 +1640,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
@@ -1621,10 +1656,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="77">
+      <c r="A12" s="75">
         <v>200</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="76" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="52" t="s">
@@ -1635,8 +1670,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
@@ -1645,10 +1680,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="67">
+      <c r="A14" s="77">
         <v>201</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="78" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -1659,8 +1694,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="67"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
@@ -1671,12 +1706,12 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -1741,10 +1776,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="71">
+      <c r="A21" s="87">
         <v>310</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="89" t="s">
         <v>100</v>
       </c>
       <c r="C21" s="61" t="s">
@@ -1757,8 +1792,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="61" t="s">
         <v>5</v>
       </c>
@@ -1783,10 +1818,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="71">
+      <c r="A24" s="87">
         <v>312</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="89" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="61" t="s">
@@ -1797,8 +1832,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="72"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="61" t="s">
         <v>5</v>
       </c>
@@ -1807,10 +1842,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="67">
+      <c r="A26" s="77">
         <v>313</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="79" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -1821,8 +1856,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="25" t="s">
         <v>5</v>
       </c>
@@ -1845,10 +1880,10 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="67">
+      <c r="A29" s="77">
         <v>330</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="79" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -1859,8 +1894,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="25" t="s">
         <v>17</v>
       </c>
@@ -1883,18 +1918,18 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="79">
+      <c r="A33" s="84">
         <v>400</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="79" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1905,8 +1940,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="79"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="25" t="s">
         <v>5</v>
       </c>
@@ -1943,341 +1978,500 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="102">
+        <v>403</v>
+      </c>
+      <c r="B37" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="103"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="45">
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="45">
         <v>500</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B40" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="35">
+    <row r="41" spans="1:4">
+      <c r="A41" s="35">
         <v>501</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B41" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C41" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D41" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="71">
+    <row r="42" spans="1:4">
+      <c r="A42" s="87">
         <v>502</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B42" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C42" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="72"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="55" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="88"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="86">
+    <row r="44" spans="1:4">
+      <c r="A44" s="71">
         <v>510</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B44" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C44" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="87"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="58" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="72"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="87"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="58" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="72"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="56">
+    <row r="47" spans="1:4">
+      <c r="A47" s="56">
         <v>511</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B47" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C47" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="73">
+    <row r="48" spans="1:4">
+      <c r="A48" s="80">
         <v>512</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B48" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C48" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="74"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="58" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="81"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="74"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="58" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="81"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="71">
+    <row r="51" spans="1:4">
+      <c r="A51" s="87">
         <v>513</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B51" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C51" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="72"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="55" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="88"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="85"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="55" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="83">
+    <row r="54" spans="1:4">
+      <c r="A54" s="85">
         <v>520</v>
       </c>
-      <c r="B52" s="69" t="s">
+      <c r="B54" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C54" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D54" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="84"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="51" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="86"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D55" s="51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="71">
+    <row r="56" spans="1:4">
+      <c r="A56" s="87">
         <v>530</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B56" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C56" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="72"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="55" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="88"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="85"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="55" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="91"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="67">
+    <row r="59" spans="1:4">
+      <c r="A59" s="77">
         <v>540</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B59" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="67"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="25" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="77"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D60" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="80" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="82"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="77">
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="70"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="75">
         <v>600</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B62" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C62" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="24" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="75"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="24" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="47">
+    <row r="65" spans="1:4">
+      <c r="A65" s="47">
         <v>601</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B65" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C65" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="23">
+    <row r="66" spans="1:4">
+      <c r="A66" s="87">
         <v>602</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B66" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="88"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="8">
+        <v>603</v>
+      </c>
+      <c r="B68" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C68" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="66">
+        <v>601</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="23">
+        <v>602</v>
+      </c>
+      <c r="B83" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="66">
+        <v>601</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="66">
+        <v>601</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="23">
+        <v>602</v>
+      </c>
+      <c r="B86" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="66">
+        <v>601</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="43">
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A14:A15"/>
@@ -2287,30 +2481,7 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2322,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1F686-1149-41FD-8AB6-6C2136E85E43}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:C33"/>
     </sheetView>
   </sheetViews>
@@ -2353,7 +2524,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="98" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2366,7 +2537,7 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="94"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
@@ -2377,7 +2548,7 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="94"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="17" t="s">
         <v>26</v>
       </c>
@@ -2388,7 +2559,7 @@
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="94"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
@@ -2399,7 +2570,7 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="94"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
@@ -2412,7 +2583,7 @@
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="94"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
@@ -2425,7 +2596,7 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="99" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -2438,7 +2609,7 @@
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="95"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
@@ -2449,7 +2620,7 @@
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="95"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
@@ -2460,7 +2631,7 @@
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="95"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
@@ -2471,7 +2642,7 @@
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="95"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="18" t="s">
         <v>29</v>
       </c>
@@ -2482,7 +2653,7 @@
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="95"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="30" t="s">
         <v>127</v>
       </c>
@@ -2495,7 +2666,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="95"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="30" t="s">
         <v>124</v>
       </c>
@@ -2508,7 +2679,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="100" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -2526,7 +2697,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="96"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
@@ -2537,7 +2708,7 @@
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="96"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
@@ -2548,7 +2719,7 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="96"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
@@ -2559,7 +2730,7 @@
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="96"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="19" t="s">
         <v>40</v>
       </c>
@@ -2570,7 +2741,7 @@
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="96"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="19" t="s">
         <v>41</v>
       </c>
@@ -2581,7 +2752,7 @@
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="96"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
@@ -2594,7 +2765,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="96"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="19" t="s">
         <v>43</v>
       </c>
@@ -2607,7 +2778,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="96"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
@@ -2620,7 +2791,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="99" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="37" t="s">
@@ -2633,7 +2804,7 @@
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="95"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="37" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2815,7 @@
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="95"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2657,7 +2828,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="93" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -2670,7 +2841,7 @@
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="90"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
@@ -2683,7 +2854,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="90"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="19" t="s">
         <v>79</v>
       </c>
@@ -2694,7 +2865,7 @@
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="90"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="19" t="s">
         <v>80</v>
       </c>
@@ -2705,7 +2876,7 @@
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="90"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
@@ -2716,7 +2887,7 @@
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="90"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="19" t="s">
         <v>43</v>
       </c>
@@ -2729,7 +2900,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="97"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="19" t="s">
         <v>51</v>
       </c>
@@ -2742,7 +2913,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="95" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="37" t="s">
@@ -2755,7 +2926,7 @@
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="92"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="37" t="s">
         <v>78</v>
       </c>
@@ -2766,7 +2937,7 @@
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="92"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="37" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2948,7 @@
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="93"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="44" t="s">
         <v>86</v>
       </c>
@@ -2790,7 +2961,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="93" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="38" t="s">
@@ -2803,7 +2974,7 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="90"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="38" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2985,7 @@
       <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="90"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="19" t="s">
         <v>98</v>
       </c>
@@ -2827,7 +2998,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="95" t="s">
         <v>99</v>
       </c>
       <c r="B41" s="37" t="s">
@@ -2840,7 +3011,7 @@
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="92"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="37" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +3022,7 @@
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="92"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="37" t="s">
         <v>78</v>
       </c>
@@ -2862,7 +3033,7 @@
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="93"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="44" t="s">
         <v>98</v>
       </c>
